--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_3_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_3_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.35000000000052</v>
+        <v>25.8100000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.503563518249877e-07</v>
+        <v>3.157047956392489e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>5.503563518249877e-07</v>
+        <v>3.157047956392489e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>53.36245692749251</v>
+        <v>53.06859653084248</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.28757688601182, 72.4373369689732]</t>
+          <t>[37.47222771960861, 68.66496534207636]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.085549060642066e-06</v>
+        <v>1.682501582500606e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.085549060642066e-06</v>
+        <v>1.682501582500606e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.132131951084965]</t>
+          <t>[1.478026573760964, 2.132131951084965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>4.934422426217111e-09</v>
+        <v>1.709743457922741e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>56.17957658669074</v>
+        <v>60.39183246219416</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.871455636093074, 68.48769753728841]</t>
+          <t>[51.234896320655054, 69.54876860373327]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.774136807052855e-12</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.774136807052855e-12</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.62552552552591</v>
+        <v>18.39511511511554</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.74774774774809</v>
+        <v>17.05165165165204</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.50330330330372</v>
+        <v>19.73857857857903</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.35000000000052</v>
+        <v>25.8100000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9.716082727262432e-08</v>
+        <v>3.00158168320408e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>9.716082727262432e-08</v>
+        <v>3.00158168320408e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.09384050799969</v>
+        <v>54.43578015328404</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[29.365724892158653, 62.821956123840735]</t>
+          <t>[35.22225158113652, 73.64930872543155]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.4472442446678e-06</v>
+        <v>8.502035238056038e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4472442446678e-06</v>
+        <v>8.502035238056038e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993887</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8993948938205012, 1.7547634641672722]</t>
+          <t>[0.8490790955648091, 1.6289739685280402]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.328975554049094e-07</v>
+        <v>7.950262403966235e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.328975554049094e-07</v>
+        <v>7.950262403966235e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>53.36216352274688</v>
+        <v>62.20756606236501</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.63950452757315, 63.0848225179206]</t>
+          <t>[51.30751582819373, 73.10761629653629]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.065014825802791e-14</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.065014825802791e-14</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>19.99579579579621</v>
+        <v>20.72034034034082</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.27027027027065</v>
+        <v>19.11851851851896</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.72132132132177</v>
+        <v>22.32216216216268</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.35000000000052</v>
+        <v>25.8100000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.437656601716469e-08</v>
+        <v>1.235228933582633e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>7.437656601716469e-08</v>
+        <v>1.235228933582633e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.41820619924022</v>
+        <v>60.51876588014272</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[33.37096966903981, 75.46544272944064]</t>
+          <t>[36.23002122339051, 84.80751053689494]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.595806505802713e-06</v>
+        <v>8.6517036510525e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>4.595806505802713e-06</v>
+        <v>8.6517036510525e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9371317425122712</v>
+        <v>0.8239211964369622</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5597632555945786, 1.3145002294299637]</t>
+          <t>[0.44655270951926873, 1.2012896833546556]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>9.147476090820561e-06</v>
+        <v>6.627649040957806e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>9.147476090820561e-06</v>
+        <v>6.627649040957806e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>53.57486575961506</v>
+        <v>66.95635258428435</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.45577769471796, 64.69395382451216]</t>
+          <t>[54.495799971284995, 79.4169051972837]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.319389042464536e-12</v>
+        <v>4.130029651605582e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.319389042464536e-12</v>
+        <v>4.130029651605582e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>21.56906906906951</v>
+        <v>22.42550550550602</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.04654654654696</v>
+        <v>20.87535535535584</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.09159159159207</v>
+        <v>23.97565565565621</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.35000000000052</v>
+        <v>25.8100000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.367582996321005e-08</v>
+        <v>3.715696639261523e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>2.367582996321005e-08</v>
+        <v>3.715696639261523e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>55.46433410049807</v>
+        <v>61.53187721288579</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.83293476232989, 76.09573343866626]</t>
+          <t>[43.06792313371972, 79.99583129205186]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.287471528195084e-06</v>
+        <v>2.726998937774283e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>2.287471528195084e-06</v>
+        <v>2.726998937774283e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.27044741562434726, 1.0251843894597323]</t>
+          <t>[0.11950002085726918, 0.723289599925578]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001202288920129302</v>
+        <v>0.007281719018265909</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001202288920129302</v>
+        <v>0.007281719018265909</v>
       </c>
       <c r="T5" t="n">
-        <v>55.20780187939045</v>
+        <v>63.37362346676471</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.57681264703153, 65.83879111174937]</t>
+          <t>[53.493036853194454, 73.25421008033496]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.250111125727926e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.250111125727926e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>22.73633633633681</v>
+        <v>24.07899899899956</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.21381381381425</v>
+        <v>22.83887887887941</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.25885885885936</v>
+        <v>25.3191191191197</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.6100000000001</v>
+        <v>22.25000000000004</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.026326871324869e-07</v>
+        <v>5.624444598950618e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>3.026326871324869e-07</v>
+        <v>5.624444598950618e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.91088853271304</v>
+        <v>55.1315792345347</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.03411304306556, 68.78766402236052]</t>
+          <t>[34.70381076475722, 75.55934770431219]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.688038543562925e-07</v>
+        <v>2.129497983727191e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>7.688038543562925e-07</v>
+        <v>2.129497983727191e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.03773684869176908</v>
+        <v>-0.3018947895341544</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4654211338651546, 0.38994743648161645]</t>
+          <t>[-0.729579074707539, 0.12578949563923025]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8597443723579592</v>
+        <v>0.1620016016951342</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8597443723579592</v>
+        <v>0.1620016016951342</v>
       </c>
       <c r="T6" t="n">
-        <v>53.7668434587555</v>
+        <v>59.2782506632596</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.37780795890113, 65.15587895860988]</t>
+          <t>[47.74926706212966, 70.80723426438954]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.461808534803822e-12</v>
+        <v>1.718625242119742e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.461808534803822e-12</v>
+        <v>1.718625242119742e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1357957957957971</v>
+        <v>1.069069069069069</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.40322322322323</v>
+        <v>-0.4454454454454455</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.674814814814824</v>
+        <v>2.583583583583584</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.6100000000001</v>
+        <v>22.25000000000004</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.668941016608194e-06</v>
+        <v>2.773692542312745e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>1.668941016608194e-06</v>
+        <v>2.773692542312745e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.29959989457548</v>
+        <v>57.74748525500062</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.73653968306468, 81.86266010608628]</t>
+          <t>[38.020434930481485, 77.47453557951975]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.725444890529289e-06</v>
+        <v>4.455226614297203e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>9.725444890529289e-06</v>
+        <v>4.455226614297203e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1069210712933462</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.37107901213573147, 0.5849211547224238]</t>
+          <t>[-0.25786846606042424, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6544965224803732</v>
+        <v>0.449493376385325</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6544965224803732</v>
+        <v>0.449493376385325</v>
       </c>
       <c r="T7" t="n">
-        <v>62.5658483732274</v>
+        <v>52.56679644972821</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.45065943926818, 76.68103730718663]</t>
+          <t>[40.911155607788956, 64.22243729166746]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.604139043820396e-11</v>
+        <v>9.659606448053637e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.604139043820396e-11</v>
+        <v>9.659606448053637e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>22.22524524524534</v>
+        <v>21.69319319319323</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.50516516516525</v>
+        <v>20.22322322322326</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.94532532532543</v>
+        <v>23.1631631631632</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6100000000001</v>
+        <v>22.25000000000004</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.837696744251161e-11</v>
+        <v>3.10823998761478e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.837696744251161e-11</v>
+        <v>3.10823998761478e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.94634633829368</v>
+        <v>55.82618793281382</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[39.486525254700524, 72.40616742188683]</t>
+          <t>[35.52007667504679, 76.13229919058085]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.725459020107678e-08</v>
+        <v>1.510266238735625e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.725459020107678e-08</v>
+        <v>1.510266238735625e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.30818426431611634, 0.9119738433844251]</t>
+          <t>[0.10692107129334438, 0.9119738433844251]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0001873823586069356</v>
+        <v>0.01427963940752375</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001873823586069356</v>
+        <v>0.01427963940752375</v>
       </c>
       <c r="T8" t="n">
-        <v>53.86326343570154</v>
+        <v>56.91624963877202</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.308018970493976, 62.418507900909106]</t>
+          <t>[45.80078229358483, 68.0317169839592]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.960653861488026e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.960653861488026e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>20.41463463463472</v>
+        <v>20.44594594594598</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.32826826826835</v>
+        <v>19.02052052052055</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.50100100100109</v>
+        <v>21.87137137137142</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_3_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_3_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8100000000006</v>
+        <v>25.88000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.157047956392489e-10</v>
+        <v>4.675385856245384e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>3.157047956392489e-10</v>
+        <v>4.675385856245384e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>53.06859653084248</v>
+        <v>59.45375606940554</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37.47222771960861, 68.66496534207636]</t>
+          <t>[40.80158697613824, 78.10592516267285]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.682501582500606e-08</v>
+        <v>7.416189173881094e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.682501582500606e-08</v>
+        <v>7.416189173881094e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.805079262422964</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 2.132131951084965]</t>
+          <t>[1.3648160276856558, 2.094395102393195]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.709743457922741e-14</v>
+        <v>2.158717649081154e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.709743457922741e-14</v>
+        <v>2.158717649081154e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>60.39183246219416</v>
+        <v>60.6240580578906</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.234896320655054, 69.54876860373327]</t>
+          <t>[49.28283230766996, 71.96528380811124]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.884981308350689e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.884981308350689e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39511511511554</v>
+        <v>18.75587587587632</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.05165165165204</v>
+        <v>17.25333333333374</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.73857857857903</v>
+        <v>20.25841841841889</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8100000000006</v>
+        <v>25.88000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.00158168320408e-08</v>
+        <v>3.590158170752034e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.00158168320408e-08</v>
+        <v>3.590158170752034e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.43578015328404</v>
+        <v>52.04219104026737</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[35.22225158113652, 73.64930872543155]</t>
+          <t>[37.41481356208713, 66.6695685184476]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.502035238056038e-07</v>
+        <v>5.786466417134761e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>8.502035238056038e-07</v>
+        <v>5.786466417134761e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.239026532046425</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.8490790955648091, 1.6289739685280402]</t>
+          <t>[1.0755001877154244, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.950262403966235e-08</v>
+        <v>4.148970056405688e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>7.950262403966235e-08</v>
+        <v>4.148970056405688e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>62.20756606236501</v>
+        <v>46.24379455371084</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[51.30751582819373, 73.10761629653629]</t>
+          <t>[37.343246995678555, 55.14434211174313]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.230127111284673e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.230127111284673e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>20.72034034034082</v>
+        <v>20.10298298298346</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.11851851851896</v>
+        <v>18.75587587587632</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.32216216216268</v>
+        <v>21.45009009009059</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8100000000006</v>
+        <v>25.88000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.235228933582633e-07</v>
+        <v>2.831327804431183e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>1.235228933582633e-07</v>
+        <v>2.831327804431183e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>60.51876588014272</v>
+        <v>44.38230713569476</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[36.23002122339051, 84.80751053689494]</t>
+          <t>[23.91467283918122, 64.8499414322083]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.6517036510525e-06</v>
+        <v>7.299390007964313e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>8.6517036510525e-06</v>
+        <v>7.299390007964313e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.44655270951926873, 1.2012896833546556]</t>
+          <t>[0.3207632138800385, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.627649040957806e-05</v>
+        <v>0.0009870149569923825</v>
       </c>
       <c r="S4" t="n">
-        <v>6.627649040957806e-05</v>
+        <v>0.0009870149569923825</v>
       </c>
       <c r="T4" t="n">
-        <v>66.95635258428435</v>
+        <v>54.47013013991504</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[54.495799971284995, 79.4169051972837]</t>
+          <t>[43.94053823491211, 64.99972204491796]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.130029651605582e-14</v>
+        <v>1.414424133372449e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>4.130029651605582e-14</v>
+        <v>1.414424133372449e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>22.42550550550602</v>
+        <v>22.79719719719773</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.87535535535584</v>
+        <v>21.03559559559609</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.97565565565621</v>
+        <v>24.55879879879938</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8100000000006</v>
+        <v>25.88000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.715696639261523e-10</v>
+        <v>9.560856550905328e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>3.715696639261523e-10</v>
+        <v>9.560856550905328e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.53187721288579</v>
+        <v>53.11324685411621</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.06792313371972, 79.99583129205186]</t>
+          <t>[36.79920186237618, 69.42729184585623]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.726998937774283e-08</v>
+        <v>4.633398043019099e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>2.726998937774283e-08</v>
+        <v>4.633398043019099e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.4717106086471157</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 0.723289599925578]</t>
+          <t>[0.15723686954903826, 0.7861843477451931]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.007281719018265909</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007281719018265909</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T5" t="n">
-        <v>63.37362346676471</v>
+        <v>54.64330572688532</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[53.493036853194454, 73.25421008033496]</t>
+          <t>[45.82468364598918, 63.46192780778145]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>24.07899899899956</v>
+        <v>23.93705705705762</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.83887887887941</v>
+        <v>22.64176176176229</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.3191191191197</v>
+        <v>25.23235235235294</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.25000000000004</v>
+        <v>22.6400000000001</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.624444598950618e-08</v>
+        <v>1.563519270719738e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>5.624444598950618e-08</v>
+        <v>1.563519270719738e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.1315792345347</v>
+        <v>49.69002143960408</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.70381076475722, 75.55934770431219]</t>
+          <t>[32.86282075039915, 66.51722212880901]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.129497983727191e-06</v>
+        <v>3.735094815660034e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>2.129497983727191e-06</v>
+        <v>3.735094815660034e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3018947895341544</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.729579074707539, 0.12578949563923025]</t>
+          <t>[-0.4654211338651546, 0.3647895373537704]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1620016016951342</v>
+        <v>0.8082369280105661</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1620016016951342</v>
+        <v>0.8082369280105661</v>
       </c>
       <c r="T6" t="n">
-        <v>59.2782506632596</v>
+        <v>56.66478514000237</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.74926706212966, 70.80723426438954]</t>
+          <t>[45.87955048755648, 67.45001979244827]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.718625242119742e-13</v>
+        <v>8.593126210598712e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.718625242119742e-13</v>
+        <v>8.593126210598712e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>1.069069069069069</v>
+        <v>0.1813013013012998</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4454454454454455</v>
+        <v>-1.314434434434444</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.583583583583584</v>
+        <v>1.677037037037044</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.25000000000004</v>
+        <v>22.6400000000001</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.773692542312745e-08</v>
+        <v>2.884843721240316e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>2.773692542312745e-08</v>
+        <v>2.884843721240316e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>57.74748525500062</v>
+        <v>42.64937105764908</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.020434930481485, 77.47453557951975]</t>
+          <t>[24.135656428747502, 61.163085686550666]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.455226614297203e-07</v>
+        <v>3.020105307016685e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>4.455226614297203e-07</v>
+        <v>3.020105307016685e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1572368695490383</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.25786846606042424, 0.5723422051585008]</t>
+          <t>[-0.11950002085727007, 0.861658045128733]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.449493376385325</v>
+        <v>0.1346339304970634</v>
       </c>
       <c r="S7" t="n">
-        <v>0.449493376385325</v>
+        <v>0.1346339304970634</v>
       </c>
       <c r="T7" t="n">
-        <v>52.56679644972821</v>
+        <v>50.98345250556873</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.911155607788956, 64.22243729166746]</t>
+          <t>[40.45614322397036, 61.5107617871671]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.659606448053637e-12</v>
+        <v>1.127098414599459e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>9.659606448053637e-12</v>
+        <v>1.127098414599459e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>21.69319319319323</v>
+        <v>21.302902902903</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.22322322322326</v>
+        <v>19.5352152152153</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.1631631631632</v>
+        <v>23.07059059059069</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.25000000000004</v>
+        <v>22.6400000000001</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.10823998761478e-08</v>
+        <v>9.306297477085224e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>3.10823998761478e-08</v>
+        <v>9.306297477085224e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.82618793281382</v>
+        <v>48.66913697454133</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.52007667504679, 76.13229919058085]</t>
+          <t>[28.89164142724219, 68.44663252184047]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.510266238735625e-06</v>
+        <v>1.063582138294272e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.510266238735625e-06</v>
+        <v>1.063582138294272e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5094474573388847</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.10692107129334438, 0.9119738433844251]</t>
+          <t>[0.2830263651882694, 1.0629212381515023]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01427963940752375</v>
+        <v>0.001139172506105846</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01427963940752375</v>
+        <v>0.001139172506105846</v>
       </c>
       <c r="T8" t="n">
-        <v>56.91624963877202</v>
+        <v>52.93431356680292</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.80078229358483, 68.0317169839592]</t>
+          <t>[42.867259567830686, 63.001367565775155]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.960653861488026e-13</v>
+        <v>8.37108160567368e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.960653861488026e-13</v>
+        <v>8.37108160567368e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>20.44594594594598</v>
+        <v>20.21509509509518</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.02052052052055</v>
+        <v>18.81001001001009</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.87137137137142</v>
+        <v>21.62018018018028</v>
       </c>
     </row>
   </sheetData>
